--- a/数据整理/stocks/港股/06818-中国光大银行.xlsx
+++ b/数据整理/stocks/港股/06818-中国光大银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>27.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>27.04</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>006323</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>合煦智远嘉选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006323</t>
+          <t>006324</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合A</t>
+          <t>合煦智远嘉选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>75.31</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.14</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006324</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>75.31</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009428</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3945</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -734,25 +824,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009429</t>
+          <t>009428</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
+          <t>鹏扬景沣六个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>21.47</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>009429</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>鹏扬景沣六个月持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06818-中国光大银行.xlsx
+++ b/数据整理/stocks/港股/06818-中国光大银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06818-中国光大银行.xlsx
+++ b/数据整理/stocks/港股/06818-中国光大银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5491</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06818-中国光大银行.xlsx
+++ b/数据整理/stocks/港股/06818-中国光大银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06818-中国光大银行.xlsx
+++ b/数据整理/stocks/港股/06818-中国光大银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.55</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.76</v>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.51</v>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06818-中国光大银行.xlsx
+++ b/数据整理/stocks/港股/06818-中国光大银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.36</v>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.55</v>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1509,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.76</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1631,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1647,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06818-中国光大银行.xlsx
+++ b/数据整理/stocks/港股/06818-中国光大银行.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009296</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方誉慧一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1275</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009297</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方誉慧一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0485</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006323</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006324</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3945</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009428</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0814</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -867,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009429</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -971,26 +819,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.88</t>
+          <t>63.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7098</t>
+          <t>2.3251</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -999,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>91.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0528</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1037,36 +885,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1195,7 +1081,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1235,26 +1121,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.01</t>
+          <t>32.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3251</t>
+          <t>1.7098</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1263,36 +1149,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.0528</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1301,74 +1187,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1251,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1433,36 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>1.3945</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1471,36 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>009428</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>鹏扬景沣六个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>21.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0814</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1509,36 +1357,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>009429</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>鹏扬景沣六个月持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>21.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0357</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1552,128 +1400,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009296</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009297</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方誉慧一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.51</v>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.26</v>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/06818-中国光大银行.xlsx
+++ b/数据整理/stocks/港股/06818-中国光大银行.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.36</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.76</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -960,7 +1071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1047,176 +1158,6 @@
       </c>
       <c r="H2" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011174</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值品质一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7098</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007178</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0528</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007216</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1291,22 +1232,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>32.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3945</t>
+          <t>1.7098</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1319,36 +1260,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009428</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0814</t>
+          <t>0.0528</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1357,36 +1298,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009429</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1395,6 +1336,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3945</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
